--- a/Document/ตารางการทำงาน.xlsx
+++ b/Document/ตารางการทำงาน.xlsx
@@ -29,6 +29,30 @@
     <author>SASIPA WANGKAEW</author>
   </authors>
   <commentList>
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{05B6F34A-231F-47FF-93E3-7CB0625E7825}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="222"/>
+          </rPr>
+          <t>SASIPA WANGKAEW:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="222"/>
+          </rPr>
+          <t xml:space="preserve">
+progress with Advisor</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="X3" authorId="0" shapeId="0" xr:uid="{A5EC2AF7-6639-4815-B535-B2F8EFE3D084}">
       <text>
         <r>
@@ -394,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,8 +475,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -672,6 +715,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,14 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,15 +775,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,17 +784,11 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1111,7 @@
   <dimension ref="A1:EZ94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1074,7 +1122,8 @@
     <col min="8" max="9" width="2.625" style="3" customWidth="1"/>
     <col min="10" max="14" width="2.625" style="1" customWidth="1"/>
     <col min="15" max="16" width="2.625" style="3" customWidth="1"/>
-    <col min="17" max="21" width="2.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="59" customWidth="1"/>
+    <col min="18" max="21" width="2.625" style="1" customWidth="1"/>
     <col min="22" max="23" width="2.625" style="3" customWidth="1"/>
     <col min="24" max="24" width="2.625" style="20" customWidth="1"/>
     <col min="25" max="28" width="2.625" style="1" customWidth="1"/>
@@ -1090,10 +1139,10 @@
     <col min="59" max="63" width="2.625" style="1" customWidth="1"/>
     <col min="64" max="64" width="2.625" style="20" customWidth="1"/>
     <col min="65" max="65" width="2.625" style="3" customWidth="1"/>
-    <col min="66" max="66" width="2.625" style="54" customWidth="1"/>
+    <col min="66" max="66" width="2.625" style="39" customWidth="1"/>
     <col min="67" max="70" width="2.625" style="1" customWidth="1"/>
     <col min="71" max="72" width="2.625" style="3" customWidth="1"/>
-    <col min="73" max="73" width="2.625" style="54" customWidth="1"/>
+    <col min="73" max="73" width="2.625" style="39" customWidth="1"/>
     <col min="74" max="77" width="2.625" style="1" customWidth="1"/>
     <col min="78" max="79" width="2.625" style="3" customWidth="1"/>
     <col min="80" max="84" width="2.625" style="1" customWidth="1"/>
@@ -1108,7 +1157,7 @@
     <col min="103" max="105" width="2.625" style="1" customWidth="1"/>
     <col min="106" max="107" width="2.625" style="3" customWidth="1"/>
     <col min="108" max="112" width="2.625" style="1" customWidth="1"/>
-    <col min="113" max="114" width="2.625" style="45" customWidth="1"/>
+    <col min="113" max="114" width="2.625" style="33" customWidth="1"/>
     <col min="115" max="115" width="2.625" style="1" customWidth="1"/>
     <col min="116" max="116" width="2.625" style="11" customWidth="1"/>
     <col min="117" max="119" width="2.625" style="4" customWidth="1"/>
@@ -1123,147 +1172,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="40" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40" t="s">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40" t="s">
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
+      <c r="BS1" s="52"/>
+      <c r="BT1" s="52"/>
+      <c r="BU1" s="52"/>
+      <c r="BV1" s="52"/>
+      <c r="BW1" s="52"/>
+      <c r="BX1" s="52"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="40"/>
-      <c r="CK1" s="40"/>
-      <c r="CL1" s="40"/>
-      <c r="CM1" s="40"/>
-      <c r="CN1" s="40"/>
-      <c r="CO1" s="40"/>
-      <c r="CP1" s="40"/>
-      <c r="CQ1" s="40"/>
-      <c r="CR1" s="40"/>
-      <c r="CS1" s="40"/>
-      <c r="CT1" s="40"/>
-      <c r="CU1" s="40"/>
-      <c r="CV1" s="40"/>
-      <c r="CW1" s="40"/>
-      <c r="CX1" s="40"/>
-      <c r="CY1" s="40"/>
-      <c r="CZ1" s="40"/>
-      <c r="DA1" s="40"/>
-      <c r="DB1" s="40"/>
-      <c r="DC1" s="40"/>
-      <c r="DD1" s="40"/>
-      <c r="DE1" s="40"/>
-      <c r="DF1" s="40"/>
-      <c r="DG1" s="40"/>
-      <c r="DH1" s="40"/>
-      <c r="DI1" s="40"/>
-      <c r="DJ1" s="40"/>
-      <c r="DK1" s="40"/>
-      <c r="DL1" s="51" t="s">
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
+      <c r="CL1" s="52"/>
+      <c r="CM1" s="52"/>
+      <c r="CN1" s="52"/>
+      <c r="CO1" s="52"/>
+      <c r="CP1" s="52"/>
+      <c r="CQ1" s="52"/>
+      <c r="CR1" s="52"/>
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="52"/>
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
+      <c r="CX1" s="52"/>
+      <c r="CY1" s="52"/>
+      <c r="CZ1" s="52"/>
+      <c r="DA1" s="52"/>
+      <c r="DB1" s="52"/>
+      <c r="DC1" s="52"/>
+      <c r="DD1" s="52"/>
+      <c r="DE1" s="52"/>
+      <c r="DF1" s="52"/>
+      <c r="DG1" s="52"/>
+      <c r="DH1" s="52"/>
+      <c r="DI1" s="52"/>
+      <c r="DJ1" s="52"/>
+      <c r="DK1" s="52"/>
+      <c r="DL1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="DM1" s="52"/>
-      <c r="DN1" s="52"/>
-      <c r="DO1" s="52"/>
-      <c r="DP1" s="52"/>
-      <c r="DQ1" s="52"/>
-      <c r="DR1" s="52"/>
-      <c r="DS1" s="52"/>
-      <c r="DT1" s="52"/>
-      <c r="DU1" s="52"/>
-      <c r="DV1" s="52"/>
-      <c r="DW1" s="53"/>
+      <c r="DM1" s="57"/>
+      <c r="DN1" s="57"/>
+      <c r="DO1" s="57"/>
+      <c r="DP1" s="57"/>
+      <c r="DQ1" s="57"/>
+      <c r="DR1" s="57"/>
+      <c r="DS1" s="57"/>
+      <c r="DT1" s="57"/>
+      <c r="DU1" s="57"/>
+      <c r="DV1" s="57"/>
+      <c r="DW1" s="58"/>
       <c r="DX1" s="6"/>
       <c r="DY1" s="6"/>
       <c r="DZ1" s="6"/>
@@ -1274,169 +1323,169 @@
       <c r="EE1" s="6"/>
     </row>
     <row r="2" spans="1:156" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="41" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="39" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39" t="s">
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="41" t="s">
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="39" t="s">
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
-      <c r="BJ2" s="39"/>
-      <c r="BK2" s="39"/>
-      <c r="BL2" s="39"/>
-      <c r="BM2" s="39" t="s">
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="39"/>
-      <c r="BQ2" s="39"/>
-      <c r="BR2" s="39"/>
-      <c r="BS2" s="39"/>
-      <c r="BT2" s="39" t="s">
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="BU2" s="39"/>
-      <c r="BV2" s="39"/>
-      <c r="BW2" s="39"/>
-      <c r="BX2" s="39"/>
-      <c r="BY2" s="39"/>
-      <c r="BZ2" s="39"/>
-      <c r="CA2" s="39" t="s">
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CB2" s="39"/>
-      <c r="CC2" s="39"/>
-      <c r="CD2" s="39"/>
-      <c r="CE2" s="39"/>
-      <c r="CF2" s="39"/>
-      <c r="CG2" s="39"/>
-      <c r="CH2" s="39" t="s">
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" s="39"/>
-      <c r="CJ2" s="39"/>
-      <c r="CK2" s="39"/>
-      <c r="CL2" s="39"/>
-      <c r="CM2" s="39"/>
-      <c r="CN2" s="39"/>
-      <c r="CO2" s="39" t="s">
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CP2" s="39"/>
-      <c r="CQ2" s="39"/>
-      <c r="CR2" s="39"/>
-      <c r="CS2" s="39"/>
-      <c r="CT2" s="39"/>
-      <c r="CU2" s="39"/>
-      <c r="CV2" s="39" t="s">
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
+      <c r="CU2" s="44"/>
+      <c r="CV2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CW2" s="39"/>
-      <c r="CX2" s="39"/>
-      <c r="CY2" s="39"/>
-      <c r="CZ2" s="39"/>
-      <c r="DA2" s="39"/>
-      <c r="DB2" s="39"/>
-      <c r="DC2" s="41" t="s">
+      <c r="CW2" s="44"/>
+      <c r="CX2" s="44"/>
+      <c r="CY2" s="44"/>
+      <c r="CZ2" s="44"/>
+      <c r="DA2" s="44"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
-      <c r="DF2" s="42"/>
-      <c r="DG2" s="42"/>
-      <c r="DH2" s="42"/>
-      <c r="DI2" s="43"/>
-      <c r="DJ2" s="39" t="s">
+      <c r="DD2" s="54"/>
+      <c r="DE2" s="54"/>
+      <c r="DF2" s="54"/>
+      <c r="DG2" s="54"/>
+      <c r="DH2" s="54"/>
+      <c r="DI2" s="55"/>
+      <c r="DJ2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="DK2" s="39"/>
-      <c r="DL2" s="39"/>
-      <c r="DM2" s="39"/>
-      <c r="DN2" s="39"/>
-      <c r="DO2" s="39"/>
-      <c r="DP2" s="39"/>
-      <c r="DQ2" s="39" t="s">
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
+      <c r="DM2" s="44"/>
+      <c r="DN2" s="44"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="DR2" s="39"/>
-      <c r="DS2" s="39"/>
-      <c r="DT2" s="39"/>
-      <c r="DU2" s="39"/>
-      <c r="DV2" s="39"/>
-      <c r="DW2" s="39"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
+      <c r="DV2" s="44"/>
+      <c r="DW2" s="44"/>
       <c r="DX2" s="9"/>
       <c r="DY2" s="9"/>
       <c r="DZ2" s="9"/>
@@ -1468,8 +1517,8 @@
       <c r="EZ2" s="9"/>
     </row>
     <row r="3" spans="1:156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="1">
         <v>8</v>
       </c>
@@ -1512,7 +1561,7 @@
       <c r="P3" s="3">
         <v>21</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="59">
         <v>22</v>
       </c>
       <c r="R3" s="1">
@@ -1659,7 +1708,7 @@
       <c r="BM3" s="3">
         <v>11</v>
       </c>
-      <c r="BN3" s="54">
+      <c r="BN3" s="39">
         <v>12</v>
       </c>
       <c r="BO3" s="1">
@@ -1680,7 +1729,7 @@
       <c r="BT3" s="3">
         <v>18</v>
       </c>
-      <c r="BU3" s="54">
+      <c r="BU3" s="39">
         <v>19</v>
       </c>
       <c r="BV3" s="1">
@@ -1800,10 +1849,10 @@
       <c r="DH3" s="1">
         <v>27</v>
       </c>
-      <c r="DI3" s="48">
+      <c r="DI3" s="36">
         <v>28</v>
       </c>
-      <c r="DJ3" s="48">
+      <c r="DJ3" s="36">
         <v>29</v>
       </c>
       <c r="DK3" s="1">
@@ -1855,130 +1904,130 @@
     <row r="5" spans="1:156" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="28"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
       <c r="AJ5" s="22"/>
       <c r="AK5" s="22"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
       <c r="AQ5" s="22"/>
       <c r="AR5" s="22"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
       <c r="AX5" s="22"/>
       <c r="AY5" s="22"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="30"/>
+      <c r="BC5" s="30"/>
+      <c r="BD5" s="30"/>
       <c r="BE5" s="22"/>
       <c r="BF5" s="22"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
+      <c r="BG5" s="30"/>
+      <c r="BH5" s="30"/>
+      <c r="BI5" s="30"/>
+      <c r="BJ5" s="30"/>
+      <c r="BK5" s="30"/>
       <c r="BL5" s="28"/>
       <c r="BM5" s="22"/>
-      <c r="BN5" s="55"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="30"/>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30"/>
+      <c r="BR5" s="30"/>
       <c r="BS5" s="22"/>
       <c r="BT5" s="22"/>
-      <c r="BU5" s="55"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
+      <c r="BU5" s="40"/>
+      <c r="BV5" s="30"/>
+      <c r="BW5" s="30"/>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="30"/>
       <c r="BZ5" s="22"/>
       <c r="CA5" s="22"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="36"/>
-      <c r="CF5" s="36"/>
+      <c r="CB5" s="30"/>
+      <c r="CC5" s="30"/>
+      <c r="CD5" s="30"/>
+      <c r="CE5" s="30"/>
+      <c r="CF5" s="30"/>
       <c r="CG5" s="22"/>
       <c r="CH5" s="22"/>
-      <c r="CI5" s="36"/>
-      <c r="CJ5" s="36"/>
-      <c r="CK5" s="36"/>
-      <c r="CL5" s="36"/>
+      <c r="CI5" s="30"/>
+      <c r="CJ5" s="30"/>
+      <c r="CK5" s="30"/>
+      <c r="CL5" s="30"/>
       <c r="CM5" s="22"/>
       <c r="CN5" s="22"/>
       <c r="CO5" s="22"/>
-      <c r="CP5" s="36"/>
-      <c r="CQ5" s="36"/>
-      <c r="CR5" s="36"/>
-      <c r="CS5" s="36"/>
+      <c r="CP5" s="30"/>
+      <c r="CQ5" s="30"/>
+      <c r="CR5" s="30"/>
+      <c r="CS5" s="30"/>
       <c r="CT5" s="22"/>
       <c r="CU5" s="22"/>
       <c r="CV5" s="22"/>
       <c r="CW5" s="22"/>
       <c r="CX5" s="22"/>
-      <c r="CY5" s="36"/>
-      <c r="CZ5" s="36"/>
-      <c r="DA5" s="36"/>
+      <c r="CY5" s="30"/>
+      <c r="CZ5" s="30"/>
+      <c r="DA5" s="30"/>
       <c r="DB5" s="22"/>
       <c r="DC5" s="22"/>
-      <c r="DD5" s="36"/>
-      <c r="DE5" s="36"/>
-      <c r="DF5" s="36"/>
-      <c r="DG5" s="36"/>
-      <c r="DH5" s="36"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="36"/>
+      <c r="DD5" s="30"/>
+      <c r="DE5" s="30"/>
+      <c r="DF5" s="30"/>
+      <c r="DG5" s="30"/>
+      <c r="DH5" s="30"/>
+      <c r="DI5" s="34"/>
+      <c r="DJ5" s="34"/>
+      <c r="DK5" s="30"/>
       <c r="DL5" s="22"/>
-      <c r="DM5" s="36"/>
-      <c r="DN5" s="36"/>
-      <c r="DO5" s="36"/>
+      <c r="DM5" s="30"/>
+      <c r="DN5" s="30"/>
+      <c r="DO5" s="30"/>
       <c r="DP5" s="22"/>
       <c r="DQ5" s="22"/>
-      <c r="DR5" s="36"/>
-      <c r="DS5" s="36"/>
+      <c r="DR5" s="30"/>
+      <c r="DS5" s="30"/>
       <c r="DT5" s="28"/>
-      <c r="DU5" s="36"/>
-      <c r="DV5" s="36"/>
+      <c r="DU5" s="30"/>
+      <c r="DV5" s="30"/>
       <c r="DW5" s="22"/>
       <c r="DX5" s="22"/>
       <c r="DY5" s="22"/>
@@ -2015,13 +2064,13 @@
         <v>26</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
@@ -2058,130 +2107,130 @@
     <row r="11" spans="1:156" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="28"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
       <c r="AJ11" s="22"/>
       <c r="AK11" s="22"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
       <c r="AQ11" s="22"/>
       <c r="AR11" s="22"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
       <c r="AX11" s="22"/>
       <c r="AY11" s="22"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="36"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="30"/>
       <c r="BE11" s="22"/>
       <c r="BF11" s="22"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="36"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="36"/>
-      <c r="BK11" s="36"/>
+      <c r="BG11" s="30"/>
+      <c r="BH11" s="30"/>
+      <c r="BI11" s="30"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="30"/>
       <c r="BL11" s="28"/>
       <c r="BM11" s="22"/>
-      <c r="BN11" s="55"/>
-      <c r="BO11" s="36"/>
-      <c r="BP11" s="36"/>
-      <c r="BQ11" s="36"/>
-      <c r="BR11" s="36"/>
+      <c r="BN11" s="40"/>
+      <c r="BO11" s="30"/>
+      <c r="BP11" s="30"/>
+      <c r="BQ11" s="30"/>
+      <c r="BR11" s="30"/>
       <c r="BS11" s="22"/>
       <c r="BT11" s="22"/>
-      <c r="BU11" s="55"/>
-      <c r="BV11" s="36"/>
-      <c r="BW11" s="36"/>
-      <c r="BX11" s="36"/>
-      <c r="BY11" s="36"/>
+      <c r="BU11" s="40"/>
+      <c r="BV11" s="30"/>
+      <c r="BW11" s="30"/>
+      <c r="BX11" s="30"/>
+      <c r="BY11" s="30"/>
       <c r="BZ11" s="22"/>
       <c r="CA11" s="22"/>
-      <c r="CB11" s="36"/>
-      <c r="CC11" s="36"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="36"/>
-      <c r="CF11" s="36"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="30"/>
+      <c r="CD11" s="30"/>
+      <c r="CE11" s="30"/>
+      <c r="CF11" s="30"/>
       <c r="CG11" s="22"/>
       <c r="CH11" s="22"/>
-      <c r="CI11" s="36"/>
-      <c r="CJ11" s="36"/>
-      <c r="CK11" s="36"/>
-      <c r="CL11" s="36"/>
+      <c r="CI11" s="30"/>
+      <c r="CJ11" s="30"/>
+      <c r="CK11" s="30"/>
+      <c r="CL11" s="30"/>
       <c r="CM11" s="22"/>
       <c r="CN11" s="22"/>
       <c r="CO11" s="22"/>
-      <c r="CP11" s="36"/>
-      <c r="CQ11" s="36"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="36"/>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="30"/>
+      <c r="CR11" s="30"/>
+      <c r="CS11" s="30"/>
       <c r="CT11" s="22"/>
       <c r="CU11" s="22"/>
       <c r="CV11" s="22"/>
       <c r="CW11" s="22"/>
       <c r="CX11" s="22"/>
-      <c r="CY11" s="36"/>
-      <c r="CZ11" s="36"/>
-      <c r="DA11" s="36"/>
+      <c r="CY11" s="30"/>
+      <c r="CZ11" s="30"/>
+      <c r="DA11" s="30"/>
       <c r="DB11" s="22"/>
       <c r="DC11" s="22"/>
-      <c r="DD11" s="36"/>
-      <c r="DE11" s="36"/>
-      <c r="DF11" s="36"/>
-      <c r="DG11" s="36"/>
-      <c r="DH11" s="36"/>
-      <c r="DI11" s="46"/>
-      <c r="DJ11" s="46"/>
-      <c r="DK11" s="36"/>
+      <c r="DD11" s="30"/>
+      <c r="DE11" s="30"/>
+      <c r="DF11" s="30"/>
+      <c r="DG11" s="30"/>
+      <c r="DH11" s="30"/>
+      <c r="DI11" s="34"/>
+      <c r="DJ11" s="34"/>
+      <c r="DK11" s="30"/>
       <c r="DL11" s="22"/>
-      <c r="DM11" s="36"/>
-      <c r="DN11" s="36"/>
-      <c r="DO11" s="36"/>
+      <c r="DM11" s="30"/>
+      <c r="DN11" s="30"/>
+      <c r="DO11" s="30"/>
       <c r="DP11" s="22"/>
       <c r="DQ11" s="22"/>
-      <c r="DR11" s="36"/>
-      <c r="DS11" s="36"/>
+      <c r="DR11" s="30"/>
+      <c r="DS11" s="30"/>
       <c r="DT11" s="28"/>
-      <c r="DU11" s="36"/>
-      <c r="DV11" s="36"/>
+      <c r="DU11" s="30"/>
+      <c r="DV11" s="30"/>
       <c r="DW11" s="22"/>
       <c r="DX11" s="22"/>
       <c r="DY11" s="22"/>
@@ -2220,11 +2269,10 @@
       <c r="B12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
     </row>
     <row r="13" spans="1:156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
@@ -2261,130 +2309,130 @@
     <row r="17" spans="1:156" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="28"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
       <c r="AC17" s="22"/>
       <c r="AD17" s="22"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
       <c r="AQ17" s="22"/>
       <c r="AR17" s="22"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
+      <c r="AS17" s="30"/>
+      <c r="AT17" s="30"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="30"/>
+      <c r="AW17" s="30"/>
       <c r="AX17" s="22"/>
       <c r="AY17" s="22"/>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="36"/>
-      <c r="BC17" s="36"/>
-      <c r="BD17" s="36"/>
+      <c r="AZ17" s="30"/>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="30"/>
+      <c r="BC17" s="30"/>
+      <c r="BD17" s="30"/>
       <c r="BE17" s="22"/>
       <c r="BF17" s="22"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
-      <c r="BK17" s="36"/>
+      <c r="BG17" s="30"/>
+      <c r="BH17" s="30"/>
+      <c r="BI17" s="30"/>
+      <c r="BJ17" s="30"/>
+      <c r="BK17" s="30"/>
       <c r="BL17" s="28"/>
       <c r="BM17" s="22"/>
-      <c r="BN17" s="55"/>
-      <c r="BO17" s="36"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="36"/>
+      <c r="BN17" s="40"/>
+      <c r="BO17" s="30"/>
+      <c r="BP17" s="30"/>
+      <c r="BQ17" s="30"/>
+      <c r="BR17" s="30"/>
       <c r="BS17" s="22"/>
       <c r="BT17" s="22"/>
-      <c r="BU17" s="55"/>
-      <c r="BV17" s="36"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="36"/>
-      <c r="BY17" s="36"/>
+      <c r="BU17" s="40"/>
+      <c r="BV17" s="30"/>
+      <c r="BW17" s="30"/>
+      <c r="BX17" s="30"/>
+      <c r="BY17" s="30"/>
       <c r="BZ17" s="22"/>
       <c r="CA17" s="22"/>
-      <c r="CB17" s="36"/>
-      <c r="CC17" s="36"/>
-      <c r="CD17" s="36"/>
-      <c r="CE17" s="36"/>
-      <c r="CF17" s="36"/>
+      <c r="CB17" s="30"/>
+      <c r="CC17" s="30"/>
+      <c r="CD17" s="30"/>
+      <c r="CE17" s="30"/>
+      <c r="CF17" s="30"/>
       <c r="CG17" s="22"/>
       <c r="CH17" s="22"/>
-      <c r="CI17" s="36"/>
-      <c r="CJ17" s="36"/>
-      <c r="CK17" s="36"/>
-      <c r="CL17" s="36"/>
+      <c r="CI17" s="30"/>
+      <c r="CJ17" s="30"/>
+      <c r="CK17" s="30"/>
+      <c r="CL17" s="30"/>
       <c r="CM17" s="22"/>
       <c r="CN17" s="22"/>
       <c r="CO17" s="22"/>
-      <c r="CP17" s="36"/>
-      <c r="CQ17" s="36"/>
-      <c r="CR17" s="36"/>
-      <c r="CS17" s="36"/>
+      <c r="CP17" s="30"/>
+      <c r="CQ17" s="30"/>
+      <c r="CR17" s="30"/>
+      <c r="CS17" s="30"/>
       <c r="CT17" s="22"/>
       <c r="CU17" s="22"/>
       <c r="CV17" s="22"/>
       <c r="CW17" s="22"/>
       <c r="CX17" s="22"/>
-      <c r="CY17" s="36"/>
-      <c r="CZ17" s="36"/>
-      <c r="DA17" s="36"/>
+      <c r="CY17" s="30"/>
+      <c r="CZ17" s="30"/>
+      <c r="DA17" s="30"/>
       <c r="DB17" s="22"/>
       <c r="DC17" s="22"/>
-      <c r="DD17" s="36"/>
-      <c r="DE17" s="36"/>
-      <c r="DF17" s="36"/>
-      <c r="DG17" s="36"/>
-      <c r="DH17" s="36"/>
-      <c r="DI17" s="46"/>
-      <c r="DJ17" s="46"/>
-      <c r="DK17" s="36"/>
+      <c r="DD17" s="30"/>
+      <c r="DE17" s="30"/>
+      <c r="DF17" s="30"/>
+      <c r="DG17" s="30"/>
+      <c r="DH17" s="30"/>
+      <c r="DI17" s="34"/>
+      <c r="DJ17" s="34"/>
+      <c r="DK17" s="30"/>
       <c r="DL17" s="22"/>
-      <c r="DM17" s="36"/>
-      <c r="DN17" s="36"/>
-      <c r="DO17" s="36"/>
+      <c r="DM17" s="30"/>
+      <c r="DN17" s="30"/>
+      <c r="DO17" s="30"/>
       <c r="DP17" s="22"/>
       <c r="DQ17" s="22"/>
-      <c r="DR17" s="36"/>
-      <c r="DS17" s="36"/>
+      <c r="DR17" s="30"/>
+      <c r="DS17" s="30"/>
       <c r="DT17" s="28"/>
-      <c r="DU17" s="36"/>
-      <c r="DV17" s="36"/>
+      <c r="DU17" s="30"/>
+      <c r="DV17" s="30"/>
       <c r="DW17" s="22"/>
       <c r="DX17" s="22"/>
       <c r="DY17" s="22"/>
@@ -2421,35 +2469,35 @@
         <v>36</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50"/>
-      <c r="BK18" s="50"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
     </row>
     <row r="19" spans="1:156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
@@ -2508,7 +2556,7 @@
       </c>
     </row>
     <row r="26" spans="1:156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2540,7 +2588,7 @@
       </c>
     </row>
     <row r="30" spans="1:156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -2572,7 +2620,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -2580,7 +2628,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="42" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -2620,7 +2668,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -2720,130 +2768,130 @@
     <row r="55" spans="1:156" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="24"/>
       <c r="B55" s="25"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
       <c r="X55" s="29"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
+      <c r="Y55" s="31"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="31"/>
+      <c r="AB55" s="31"/>
       <c r="AC55" s="25"/>
       <c r="AD55" s="25"/>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="37"/>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="37"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="31"/>
+      <c r="AG55" s="31"/>
+      <c r="AH55" s="31"/>
+      <c r="AI55" s="31"/>
       <c r="AJ55" s="25"/>
       <c r="AK55" s="25"/>
-      <c r="AL55" s="37"/>
-      <c r="AM55" s="37"/>
-      <c r="AN55" s="37"/>
-      <c r="AO55" s="37"/>
-      <c r="AP55" s="37"/>
+      <c r="AL55" s="31"/>
+      <c r="AM55" s="31"/>
+      <c r="AN55" s="31"/>
+      <c r="AO55" s="31"/>
+      <c r="AP55" s="31"/>
       <c r="AQ55" s="25"/>
       <c r="AR55" s="25"/>
-      <c r="AS55" s="37"/>
-      <c r="AT55" s="37"/>
-      <c r="AU55" s="37"/>
-      <c r="AV55" s="37"/>
-      <c r="AW55" s="37"/>
+      <c r="AS55" s="31"/>
+      <c r="AT55" s="31"/>
+      <c r="AU55" s="31"/>
+      <c r="AV55" s="31"/>
+      <c r="AW55" s="31"/>
       <c r="AX55" s="25"/>
       <c r="AY55" s="25"/>
-      <c r="AZ55" s="37"/>
-      <c r="BA55" s="37"/>
-      <c r="BB55" s="37"/>
-      <c r="BC55" s="37"/>
-      <c r="BD55" s="37"/>
+      <c r="AZ55" s="31"/>
+      <c r="BA55" s="31"/>
+      <c r="BB55" s="31"/>
+      <c r="BC55" s="31"/>
+      <c r="BD55" s="31"/>
       <c r="BE55" s="25"/>
       <c r="BF55" s="25"/>
-      <c r="BG55" s="37"/>
-      <c r="BH55" s="37"/>
-      <c r="BI55" s="37"/>
-      <c r="BJ55" s="37"/>
-      <c r="BK55" s="37"/>
+      <c r="BG55" s="31"/>
+      <c r="BH55" s="31"/>
+      <c r="BI55" s="31"/>
+      <c r="BJ55" s="31"/>
+      <c r="BK55" s="31"/>
       <c r="BL55" s="29"/>
       <c r="BM55" s="25"/>
-      <c r="BN55" s="56"/>
-      <c r="BO55" s="37"/>
-      <c r="BP55" s="37"/>
-      <c r="BQ55" s="37"/>
-      <c r="BR55" s="37"/>
+      <c r="BN55" s="41"/>
+      <c r="BO55" s="31"/>
+      <c r="BP55" s="31"/>
+      <c r="BQ55" s="31"/>
+      <c r="BR55" s="31"/>
       <c r="BS55" s="25"/>
       <c r="BT55" s="25"/>
-      <c r="BU55" s="56"/>
-      <c r="BV55" s="37"/>
-      <c r="BW55" s="37"/>
-      <c r="BX55" s="37"/>
-      <c r="BY55" s="37"/>
+      <c r="BU55" s="41"/>
+      <c r="BV55" s="31"/>
+      <c r="BW55" s="31"/>
+      <c r="BX55" s="31"/>
+      <c r="BY55" s="31"/>
       <c r="BZ55" s="25"/>
       <c r="CA55" s="25"/>
-      <c r="CB55" s="37"/>
-      <c r="CC55" s="37"/>
-      <c r="CD55" s="37"/>
-      <c r="CE55" s="37"/>
-      <c r="CF55" s="37"/>
+      <c r="CB55" s="31"/>
+      <c r="CC55" s="31"/>
+      <c r="CD55" s="31"/>
+      <c r="CE55" s="31"/>
+      <c r="CF55" s="31"/>
       <c r="CG55" s="25"/>
       <c r="CH55" s="25"/>
-      <c r="CI55" s="37"/>
-      <c r="CJ55" s="37"/>
-      <c r="CK55" s="37"/>
-      <c r="CL55" s="37"/>
+      <c r="CI55" s="31"/>
+      <c r="CJ55" s="31"/>
+      <c r="CK55" s="31"/>
+      <c r="CL55" s="31"/>
       <c r="CM55" s="25"/>
       <c r="CN55" s="25"/>
       <c r="CO55" s="25"/>
-      <c r="CP55" s="37"/>
-      <c r="CQ55" s="37"/>
-      <c r="CR55" s="37"/>
-      <c r="CS55" s="37"/>
+      <c r="CP55" s="31"/>
+      <c r="CQ55" s="31"/>
+      <c r="CR55" s="31"/>
+      <c r="CS55" s="31"/>
       <c r="CT55" s="25"/>
       <c r="CU55" s="25"/>
       <c r="CV55" s="25"/>
       <c r="CW55" s="25"/>
       <c r="CX55" s="25"/>
-      <c r="CY55" s="37"/>
-      <c r="CZ55" s="37"/>
-      <c r="DA55" s="37"/>
+      <c r="CY55" s="31"/>
+      <c r="CZ55" s="31"/>
+      <c r="DA55" s="31"/>
       <c r="DB55" s="25"/>
       <c r="DC55" s="25"/>
-      <c r="DD55" s="37"/>
-      <c r="DE55" s="37"/>
-      <c r="DF55" s="37"/>
-      <c r="DG55" s="37"/>
-      <c r="DH55" s="37"/>
-      <c r="DI55" s="47"/>
-      <c r="DJ55" s="47"/>
-      <c r="DK55" s="37"/>
+      <c r="DD55" s="31"/>
+      <c r="DE55" s="31"/>
+      <c r="DF55" s="31"/>
+      <c r="DG55" s="31"/>
+      <c r="DH55" s="31"/>
+      <c r="DI55" s="35"/>
+      <c r="DJ55" s="35"/>
+      <c r="DK55" s="31"/>
       <c r="DL55" s="25"/>
-      <c r="DM55" s="37"/>
-      <c r="DN55" s="37"/>
-      <c r="DO55" s="37"/>
+      <c r="DM55" s="31"/>
+      <c r="DN55" s="31"/>
+      <c r="DO55" s="31"/>
       <c r="DP55" s="25"/>
       <c r="DQ55" s="25"/>
-      <c r="DR55" s="37"/>
-      <c r="DS55" s="37"/>
+      <c r="DR55" s="31"/>
+      <c r="DS55" s="31"/>
       <c r="DT55" s="29"/>
-      <c r="DU55" s="37"/>
-      <c r="DV55" s="37"/>
+      <c r="DU55" s="31"/>
+      <c r="DV55" s="31"/>
       <c r="DW55" s="25"/>
       <c r="DX55" s="25"/>
       <c r="DY55" s="25"/>
@@ -2884,130 +2932,130 @@
     <row r="57" spans="1:156" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
       <c r="V57" s="22"/>
       <c r="W57" s="22"/>
       <c r="X57" s="28"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
       <c r="AC57" s="22"/>
       <c r="AD57" s="22"/>
-      <c r="AE57" s="36"/>
-      <c r="AF57" s="36"/>
-      <c r="AG57" s="36"/>
-      <c r="AH57" s="36"/>
-      <c r="AI57" s="36"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30"/>
+      <c r="AI57" s="30"/>
       <c r="AJ57" s="22"/>
       <c r="AK57" s="22"/>
-      <c r="AL57" s="36"/>
-      <c r="AM57" s="36"/>
-      <c r="AN57" s="36"/>
-      <c r="AO57" s="36"/>
-      <c r="AP57" s="36"/>
+      <c r="AL57" s="30"/>
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30"/>
       <c r="AQ57" s="22"/>
       <c r="AR57" s="22"/>
-      <c r="AS57" s="36"/>
-      <c r="AT57" s="36"/>
-      <c r="AU57" s="36"/>
-      <c r="AV57" s="36"/>
-      <c r="AW57" s="36"/>
+      <c r="AS57" s="30"/>
+      <c r="AT57" s="30"/>
+      <c r="AU57" s="30"/>
+      <c r="AV57" s="30"/>
+      <c r="AW57" s="30"/>
       <c r="AX57" s="22"/>
       <c r="AY57" s="22"/>
-      <c r="AZ57" s="36"/>
-      <c r="BA57" s="36"/>
-      <c r="BB57" s="36"/>
-      <c r="BC57" s="36"/>
-      <c r="BD57" s="36"/>
+      <c r="AZ57" s="30"/>
+      <c r="BA57" s="30"/>
+      <c r="BB57" s="30"/>
+      <c r="BC57" s="30"/>
+      <c r="BD57" s="30"/>
       <c r="BE57" s="22"/>
       <c r="BF57" s="22"/>
-      <c r="BG57" s="36"/>
-      <c r="BH57" s="36"/>
-      <c r="BI57" s="36"/>
-      <c r="BJ57" s="36"/>
-      <c r="BK57" s="36"/>
+      <c r="BG57" s="30"/>
+      <c r="BH57" s="30"/>
+      <c r="BI57" s="30"/>
+      <c r="BJ57" s="30"/>
+      <c r="BK57" s="30"/>
       <c r="BL57" s="28"/>
       <c r="BM57" s="22"/>
-      <c r="BN57" s="55"/>
-      <c r="BO57" s="36"/>
-      <c r="BP57" s="36"/>
-      <c r="BQ57" s="36"/>
-      <c r="BR57" s="36"/>
+      <c r="BN57" s="40"/>
+      <c r="BO57" s="30"/>
+      <c r="BP57" s="30"/>
+      <c r="BQ57" s="30"/>
+      <c r="BR57" s="30"/>
       <c r="BS57" s="22"/>
       <c r="BT57" s="22"/>
-      <c r="BU57" s="55"/>
-      <c r="BV57" s="36"/>
-      <c r="BW57" s="36"/>
-      <c r="BX57" s="36"/>
-      <c r="BY57" s="36"/>
+      <c r="BU57" s="40"/>
+      <c r="BV57" s="30"/>
+      <c r="BW57" s="30"/>
+      <c r="BX57" s="30"/>
+      <c r="BY57" s="30"/>
       <c r="BZ57" s="22"/>
       <c r="CA57" s="22"/>
-      <c r="CB57" s="36"/>
-      <c r="CC57" s="36"/>
-      <c r="CD57" s="36"/>
-      <c r="CE57" s="36"/>
-      <c r="CF57" s="36"/>
+      <c r="CB57" s="30"/>
+      <c r="CC57" s="30"/>
+      <c r="CD57" s="30"/>
+      <c r="CE57" s="30"/>
+      <c r="CF57" s="30"/>
       <c r="CG57" s="22"/>
       <c r="CH57" s="22"/>
-      <c r="CI57" s="36"/>
-      <c r="CJ57" s="36"/>
-      <c r="CK57" s="36"/>
-      <c r="CL57" s="36"/>
+      <c r="CI57" s="30"/>
+      <c r="CJ57" s="30"/>
+      <c r="CK57" s="30"/>
+      <c r="CL57" s="30"/>
       <c r="CM57" s="22"/>
       <c r="CN57" s="22"/>
       <c r="CO57" s="22"/>
-      <c r="CP57" s="36"/>
-      <c r="CQ57" s="36"/>
-      <c r="CR57" s="36"/>
-      <c r="CS57" s="36"/>
+      <c r="CP57" s="30"/>
+      <c r="CQ57" s="30"/>
+      <c r="CR57" s="30"/>
+      <c r="CS57" s="30"/>
       <c r="CT57" s="22"/>
       <c r="CU57" s="22"/>
       <c r="CV57" s="22"/>
       <c r="CW57" s="22"/>
       <c r="CX57" s="22"/>
-      <c r="CY57" s="36"/>
-      <c r="CZ57" s="36"/>
-      <c r="DA57" s="36"/>
+      <c r="CY57" s="30"/>
+      <c r="CZ57" s="30"/>
+      <c r="DA57" s="30"/>
       <c r="DB57" s="22"/>
       <c r="DC57" s="22"/>
-      <c r="DD57" s="36"/>
-      <c r="DE57" s="36"/>
-      <c r="DF57" s="36"/>
-      <c r="DG57" s="36"/>
-      <c r="DH57" s="36"/>
-      <c r="DI57" s="46"/>
-      <c r="DJ57" s="46"/>
-      <c r="DK57" s="36"/>
+      <c r="DD57" s="30"/>
+      <c r="DE57" s="30"/>
+      <c r="DF57" s="30"/>
+      <c r="DG57" s="30"/>
+      <c r="DH57" s="30"/>
+      <c r="DI57" s="34"/>
+      <c r="DJ57" s="34"/>
+      <c r="DK57" s="30"/>
       <c r="DL57" s="22"/>
-      <c r="DM57" s="36"/>
-      <c r="DN57" s="36"/>
-      <c r="DO57" s="36"/>
+      <c r="DM57" s="30"/>
+      <c r="DN57" s="30"/>
+      <c r="DO57" s="30"/>
       <c r="DP57" s="22"/>
       <c r="DQ57" s="22"/>
-      <c r="DR57" s="36"/>
-      <c r="DS57" s="36"/>
+      <c r="DR57" s="30"/>
+      <c r="DS57" s="30"/>
       <c r="DT57" s="28"/>
-      <c r="DU57" s="36"/>
-      <c r="DV57" s="36"/>
+      <c r="DU57" s="30"/>
+      <c r="DV57" s="30"/>
       <c r="DW57" s="22"/>
       <c r="DX57" s="22"/>
       <c r="DY57" s="22"/>
@@ -3048,130 +3096,130 @@
     <row r="59" spans="1:156" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
       <c r="V59" s="22"/>
       <c r="W59" s="22"/>
       <c r="X59" s="28"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
       <c r="AC59" s="22"/>
       <c r="AD59" s="22"/>
-      <c r="AE59" s="36"/>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="36"/>
-      <c r="AH59" s="36"/>
-      <c r="AI59" s="36"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="30"/>
+      <c r="AG59" s="30"/>
+      <c r="AH59" s="30"/>
+      <c r="AI59" s="30"/>
       <c r="AJ59" s="22"/>
       <c r="AK59" s="22"/>
-      <c r="AL59" s="36"/>
-      <c r="AM59" s="36"/>
-      <c r="AN59" s="36"/>
-      <c r="AO59" s="36"/>
-      <c r="AP59" s="36"/>
+      <c r="AL59" s="30"/>
+      <c r="AM59" s="30"/>
+      <c r="AN59" s="30"/>
+      <c r="AO59" s="30"/>
+      <c r="AP59" s="30"/>
       <c r="AQ59" s="22"/>
       <c r="AR59" s="22"/>
-      <c r="AS59" s="36"/>
-      <c r="AT59" s="36"/>
-      <c r="AU59" s="36"/>
-      <c r="AV59" s="36"/>
-      <c r="AW59" s="36"/>
+      <c r="AS59" s="30"/>
+      <c r="AT59" s="30"/>
+      <c r="AU59" s="30"/>
+      <c r="AV59" s="30"/>
+      <c r="AW59" s="30"/>
       <c r="AX59" s="22"/>
       <c r="AY59" s="22"/>
-      <c r="AZ59" s="36"/>
-      <c r="BA59" s="36"/>
-      <c r="BB59" s="36"/>
-      <c r="BC59" s="36"/>
-      <c r="BD59" s="36"/>
+      <c r="AZ59" s="30"/>
+      <c r="BA59" s="30"/>
+      <c r="BB59" s="30"/>
+      <c r="BC59" s="30"/>
+      <c r="BD59" s="30"/>
       <c r="BE59" s="22"/>
       <c r="BF59" s="22"/>
-      <c r="BG59" s="36"/>
-      <c r="BH59" s="36"/>
-      <c r="BI59" s="36"/>
-      <c r="BJ59" s="36"/>
-      <c r="BK59" s="36"/>
+      <c r="BG59" s="30"/>
+      <c r="BH59" s="30"/>
+      <c r="BI59" s="30"/>
+      <c r="BJ59" s="30"/>
+      <c r="BK59" s="30"/>
       <c r="BL59" s="28"/>
       <c r="BM59" s="22"/>
-      <c r="BN59" s="55"/>
-      <c r="BO59" s="36"/>
-      <c r="BP59" s="36"/>
-      <c r="BQ59" s="36"/>
-      <c r="BR59" s="36"/>
+      <c r="BN59" s="40"/>
+      <c r="BO59" s="30"/>
+      <c r="BP59" s="30"/>
+      <c r="BQ59" s="30"/>
+      <c r="BR59" s="30"/>
       <c r="BS59" s="22"/>
       <c r="BT59" s="22"/>
-      <c r="BU59" s="55"/>
-      <c r="BV59" s="36"/>
-      <c r="BW59" s="36"/>
-      <c r="BX59" s="36"/>
-      <c r="BY59" s="36"/>
+      <c r="BU59" s="40"/>
+      <c r="BV59" s="30"/>
+      <c r="BW59" s="30"/>
+      <c r="BX59" s="30"/>
+      <c r="BY59" s="30"/>
       <c r="BZ59" s="22"/>
       <c r="CA59" s="22"/>
-      <c r="CB59" s="36"/>
-      <c r="CC59" s="36"/>
-      <c r="CD59" s="36"/>
-      <c r="CE59" s="36"/>
-      <c r="CF59" s="36"/>
+      <c r="CB59" s="30"/>
+      <c r="CC59" s="30"/>
+      <c r="CD59" s="30"/>
+      <c r="CE59" s="30"/>
+      <c r="CF59" s="30"/>
       <c r="CG59" s="22"/>
       <c r="CH59" s="22"/>
-      <c r="CI59" s="36"/>
-      <c r="CJ59" s="36"/>
-      <c r="CK59" s="36"/>
-      <c r="CL59" s="36"/>
+      <c r="CI59" s="30"/>
+      <c r="CJ59" s="30"/>
+      <c r="CK59" s="30"/>
+      <c r="CL59" s="30"/>
       <c r="CM59" s="22"/>
       <c r="CN59" s="22"/>
       <c r="CO59" s="22"/>
-      <c r="CP59" s="36"/>
-      <c r="CQ59" s="36"/>
-      <c r="CR59" s="36"/>
-      <c r="CS59" s="36"/>
+      <c r="CP59" s="30"/>
+      <c r="CQ59" s="30"/>
+      <c r="CR59" s="30"/>
+      <c r="CS59" s="30"/>
       <c r="CT59" s="22"/>
       <c r="CU59" s="22"/>
       <c r="CV59" s="22"/>
       <c r="CW59" s="22"/>
       <c r="CX59" s="22"/>
-      <c r="CY59" s="36"/>
-      <c r="CZ59" s="36"/>
-      <c r="DA59" s="36"/>
+      <c r="CY59" s="30"/>
+      <c r="CZ59" s="30"/>
+      <c r="DA59" s="30"/>
       <c r="DB59" s="22"/>
       <c r="DC59" s="22"/>
-      <c r="DD59" s="36"/>
-      <c r="DE59" s="36"/>
-      <c r="DF59" s="36"/>
-      <c r="DG59" s="36"/>
-      <c r="DH59" s="36"/>
-      <c r="DI59" s="46"/>
-      <c r="DJ59" s="46"/>
-      <c r="DK59" s="36"/>
+      <c r="DD59" s="30"/>
+      <c r="DE59" s="30"/>
+      <c r="DF59" s="30"/>
+      <c r="DG59" s="30"/>
+      <c r="DH59" s="30"/>
+      <c r="DI59" s="34"/>
+      <c r="DJ59" s="34"/>
+      <c r="DK59" s="30"/>
       <c r="DL59" s="22"/>
-      <c r="DM59" s="36"/>
-      <c r="DN59" s="36"/>
-      <c r="DO59" s="36"/>
+      <c r="DM59" s="30"/>
+      <c r="DN59" s="30"/>
+      <c r="DO59" s="30"/>
       <c r="DP59" s="22"/>
       <c r="DQ59" s="22"/>
-      <c r="DR59" s="36"/>
-      <c r="DS59" s="36"/>
+      <c r="DR59" s="30"/>
+      <c r="DS59" s="30"/>
       <c r="DT59" s="28"/>
-      <c r="DU59" s="36"/>
-      <c r="DV59" s="36"/>
+      <c r="DU59" s="30"/>
+      <c r="DV59" s="30"/>
       <c r="DW59" s="22"/>
       <c r="DX59" s="22"/>
       <c r="DY59" s="22"/>
@@ -3212,130 +3260,130 @@
     <row r="61" spans="1:156" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
       <c r="V61" s="22"/>
       <c r="W61" s="22"/>
       <c r="X61" s="28"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
-      <c r="AB61" s="36"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
       <c r="AC61" s="22"/>
       <c r="AD61" s="22"/>
-      <c r="AE61" s="36"/>
-      <c r="AF61" s="36"/>
-      <c r="AG61" s="36"/>
-      <c r="AH61" s="36"/>
-      <c r="AI61" s="36"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="30"/>
+      <c r="AG61" s="30"/>
+      <c r="AH61" s="30"/>
+      <c r="AI61" s="30"/>
       <c r="AJ61" s="22"/>
       <c r="AK61" s="22"/>
-      <c r="AL61" s="36"/>
-      <c r="AM61" s="36"/>
-      <c r="AN61" s="36"/>
-      <c r="AO61" s="36"/>
-      <c r="AP61" s="36"/>
+      <c r="AL61" s="30"/>
+      <c r="AM61" s="30"/>
+      <c r="AN61" s="30"/>
+      <c r="AO61" s="30"/>
+      <c r="AP61" s="30"/>
       <c r="AQ61" s="22"/>
       <c r="AR61" s="22"/>
-      <c r="AS61" s="36"/>
-      <c r="AT61" s="36"/>
-      <c r="AU61" s="36"/>
-      <c r="AV61" s="36"/>
-      <c r="AW61" s="36"/>
+      <c r="AS61" s="30"/>
+      <c r="AT61" s="30"/>
+      <c r="AU61" s="30"/>
+      <c r="AV61" s="30"/>
+      <c r="AW61" s="30"/>
       <c r="AX61" s="22"/>
       <c r="AY61" s="22"/>
-      <c r="AZ61" s="36"/>
-      <c r="BA61" s="36"/>
-      <c r="BB61" s="36"/>
-      <c r="BC61" s="36"/>
-      <c r="BD61" s="36"/>
+      <c r="AZ61" s="30"/>
+      <c r="BA61" s="30"/>
+      <c r="BB61" s="30"/>
+      <c r="BC61" s="30"/>
+      <c r="BD61" s="30"/>
       <c r="BE61" s="22"/>
       <c r="BF61" s="22"/>
-      <c r="BG61" s="36"/>
-      <c r="BH61" s="36"/>
-      <c r="BI61" s="36"/>
-      <c r="BJ61" s="36"/>
-      <c r="BK61" s="36"/>
+      <c r="BG61" s="30"/>
+      <c r="BH61" s="30"/>
+      <c r="BI61" s="30"/>
+      <c r="BJ61" s="30"/>
+      <c r="BK61" s="30"/>
       <c r="BL61" s="28"/>
       <c r="BM61" s="22"/>
-      <c r="BN61" s="55"/>
-      <c r="BO61" s="36"/>
-      <c r="BP61" s="36"/>
-      <c r="BQ61" s="36"/>
-      <c r="BR61" s="36"/>
+      <c r="BN61" s="40"/>
+      <c r="BO61" s="30"/>
+      <c r="BP61" s="30"/>
+      <c r="BQ61" s="30"/>
+      <c r="BR61" s="30"/>
       <c r="BS61" s="22"/>
       <c r="BT61" s="22"/>
-      <c r="BU61" s="55"/>
-      <c r="BV61" s="36"/>
-      <c r="BW61" s="36"/>
-      <c r="BX61" s="36"/>
-      <c r="BY61" s="36"/>
+      <c r="BU61" s="40"/>
+      <c r="BV61" s="30"/>
+      <c r="BW61" s="30"/>
+      <c r="BX61" s="30"/>
+      <c r="BY61" s="30"/>
       <c r="BZ61" s="22"/>
       <c r="CA61" s="22"/>
-      <c r="CB61" s="36"/>
-      <c r="CC61" s="36"/>
-      <c r="CD61" s="36"/>
-      <c r="CE61" s="36"/>
-      <c r="CF61" s="36"/>
+      <c r="CB61" s="30"/>
+      <c r="CC61" s="30"/>
+      <c r="CD61" s="30"/>
+      <c r="CE61" s="30"/>
+      <c r="CF61" s="30"/>
       <c r="CG61" s="22"/>
       <c r="CH61" s="22"/>
-      <c r="CI61" s="36"/>
-      <c r="CJ61" s="36"/>
-      <c r="CK61" s="36"/>
-      <c r="CL61" s="36"/>
+      <c r="CI61" s="30"/>
+      <c r="CJ61" s="30"/>
+      <c r="CK61" s="30"/>
+      <c r="CL61" s="30"/>
       <c r="CM61" s="22"/>
       <c r="CN61" s="22"/>
       <c r="CO61" s="22"/>
-      <c r="CP61" s="36"/>
-      <c r="CQ61" s="36"/>
-      <c r="CR61" s="36"/>
-      <c r="CS61" s="36"/>
+      <c r="CP61" s="30"/>
+      <c r="CQ61" s="30"/>
+      <c r="CR61" s="30"/>
+      <c r="CS61" s="30"/>
       <c r="CT61" s="22"/>
       <c r="CU61" s="22"/>
       <c r="CV61" s="22"/>
       <c r="CW61" s="22"/>
       <c r="CX61" s="22"/>
-      <c r="CY61" s="36"/>
-      <c r="CZ61" s="36"/>
-      <c r="DA61" s="36"/>
+      <c r="CY61" s="30"/>
+      <c r="CZ61" s="30"/>
+      <c r="DA61" s="30"/>
       <c r="DB61" s="22"/>
       <c r="DC61" s="22"/>
-      <c r="DD61" s="36"/>
-      <c r="DE61" s="36"/>
-      <c r="DF61" s="36"/>
-      <c r="DG61" s="36"/>
-      <c r="DH61" s="36"/>
-      <c r="DI61" s="46"/>
-      <c r="DJ61" s="46"/>
-      <c r="DK61" s="36"/>
+      <c r="DD61" s="30"/>
+      <c r="DE61" s="30"/>
+      <c r="DF61" s="30"/>
+      <c r="DG61" s="30"/>
+      <c r="DH61" s="30"/>
+      <c r="DI61" s="34"/>
+      <c r="DJ61" s="34"/>
+      <c r="DK61" s="30"/>
       <c r="DL61" s="22"/>
-      <c r="DM61" s="36"/>
-      <c r="DN61" s="36"/>
-      <c r="DO61" s="36"/>
+      <c r="DM61" s="30"/>
+      <c r="DN61" s="30"/>
+      <c r="DO61" s="30"/>
       <c r="DP61" s="22"/>
       <c r="DQ61" s="22"/>
-      <c r="DR61" s="36"/>
-      <c r="DS61" s="36"/>
+      <c r="DR61" s="30"/>
+      <c r="DS61" s="30"/>
       <c r="DT61" s="28"/>
-      <c r="DU61" s="36"/>
-      <c r="DV61" s="36"/>
+      <c r="DU61" s="30"/>
+      <c r="DV61" s="30"/>
       <c r="DW61" s="22"/>
       <c r="DX61" s="22"/>
       <c r="DY61" s="22"/>
@@ -3376,130 +3424,130 @@
     <row r="63" spans="1:156" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
       <c r="V63" s="22"/>
       <c r="W63" s="22"/>
       <c r="X63" s="28"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="36"/>
-      <c r="AB63" s="36"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
       <c r="AC63" s="22"/>
       <c r="AD63" s="22"/>
-      <c r="AE63" s="36"/>
-      <c r="AF63" s="36"/>
-      <c r="AG63" s="36"/>
-      <c r="AH63" s="36"/>
-      <c r="AI63" s="36"/>
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="30"/>
+      <c r="AG63" s="30"/>
+      <c r="AH63" s="30"/>
+      <c r="AI63" s="30"/>
       <c r="AJ63" s="22"/>
       <c r="AK63" s="22"/>
-      <c r="AL63" s="36"/>
-      <c r="AM63" s="36"/>
-      <c r="AN63" s="36"/>
-      <c r="AO63" s="36"/>
-      <c r="AP63" s="36"/>
+      <c r="AL63" s="30"/>
+      <c r="AM63" s="30"/>
+      <c r="AN63" s="30"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="30"/>
       <c r="AQ63" s="22"/>
       <c r="AR63" s="22"/>
-      <c r="AS63" s="36"/>
-      <c r="AT63" s="36"/>
-      <c r="AU63" s="36"/>
-      <c r="AV63" s="36"/>
-      <c r="AW63" s="36"/>
+      <c r="AS63" s="30"/>
+      <c r="AT63" s="30"/>
+      <c r="AU63" s="30"/>
+      <c r="AV63" s="30"/>
+      <c r="AW63" s="30"/>
       <c r="AX63" s="22"/>
       <c r="AY63" s="22"/>
-      <c r="AZ63" s="36"/>
-      <c r="BA63" s="36"/>
-      <c r="BB63" s="36"/>
-      <c r="BC63" s="36"/>
-      <c r="BD63" s="36"/>
+      <c r="AZ63" s="30"/>
+      <c r="BA63" s="30"/>
+      <c r="BB63" s="30"/>
+      <c r="BC63" s="30"/>
+      <c r="BD63" s="30"/>
       <c r="BE63" s="22"/>
       <c r="BF63" s="22"/>
-      <c r="BG63" s="36"/>
-      <c r="BH63" s="36"/>
-      <c r="BI63" s="36"/>
-      <c r="BJ63" s="36"/>
-      <c r="BK63" s="36"/>
+      <c r="BG63" s="30"/>
+      <c r="BH63" s="30"/>
+      <c r="BI63" s="30"/>
+      <c r="BJ63" s="30"/>
+      <c r="BK63" s="30"/>
       <c r="BL63" s="28"/>
       <c r="BM63" s="22"/>
-      <c r="BN63" s="55"/>
-      <c r="BO63" s="36"/>
-      <c r="BP63" s="36"/>
-      <c r="BQ63" s="36"/>
-      <c r="BR63" s="36"/>
+      <c r="BN63" s="40"/>
+      <c r="BO63" s="30"/>
+      <c r="BP63" s="30"/>
+      <c r="BQ63" s="30"/>
+      <c r="BR63" s="30"/>
       <c r="BS63" s="22"/>
       <c r="BT63" s="22"/>
-      <c r="BU63" s="55"/>
-      <c r="BV63" s="36"/>
-      <c r="BW63" s="36"/>
-      <c r="BX63" s="36"/>
-      <c r="BY63" s="36"/>
+      <c r="BU63" s="40"/>
+      <c r="BV63" s="30"/>
+      <c r="BW63" s="30"/>
+      <c r="BX63" s="30"/>
+      <c r="BY63" s="30"/>
       <c r="BZ63" s="22"/>
       <c r="CA63" s="22"/>
-      <c r="CB63" s="36"/>
-      <c r="CC63" s="36"/>
-      <c r="CD63" s="36"/>
-      <c r="CE63" s="36"/>
-      <c r="CF63" s="36"/>
+      <c r="CB63" s="30"/>
+      <c r="CC63" s="30"/>
+      <c r="CD63" s="30"/>
+      <c r="CE63" s="30"/>
+      <c r="CF63" s="30"/>
       <c r="CG63" s="22"/>
       <c r="CH63" s="22"/>
-      <c r="CI63" s="36"/>
-      <c r="CJ63" s="36"/>
-      <c r="CK63" s="36"/>
-      <c r="CL63" s="36"/>
+      <c r="CI63" s="30"/>
+      <c r="CJ63" s="30"/>
+      <c r="CK63" s="30"/>
+      <c r="CL63" s="30"/>
       <c r="CM63" s="22"/>
       <c r="CN63" s="22"/>
       <c r="CO63" s="22"/>
-      <c r="CP63" s="36"/>
-      <c r="CQ63" s="36"/>
-      <c r="CR63" s="36"/>
-      <c r="CS63" s="36"/>
+      <c r="CP63" s="30"/>
+      <c r="CQ63" s="30"/>
+      <c r="CR63" s="30"/>
+      <c r="CS63" s="30"/>
       <c r="CT63" s="22"/>
       <c r="CU63" s="22"/>
       <c r="CV63" s="22"/>
       <c r="CW63" s="22"/>
       <c r="CX63" s="22"/>
-      <c r="CY63" s="36"/>
-      <c r="CZ63" s="36"/>
-      <c r="DA63" s="36"/>
+      <c r="CY63" s="30"/>
+      <c r="CZ63" s="30"/>
+      <c r="DA63" s="30"/>
       <c r="DB63" s="22"/>
       <c r="DC63" s="22"/>
-      <c r="DD63" s="36"/>
-      <c r="DE63" s="36"/>
-      <c r="DF63" s="36"/>
-      <c r="DG63" s="36"/>
-      <c r="DH63" s="36"/>
-      <c r="DI63" s="46"/>
-      <c r="DJ63" s="46"/>
-      <c r="DK63" s="36"/>
+      <c r="DD63" s="30"/>
+      <c r="DE63" s="30"/>
+      <c r="DF63" s="30"/>
+      <c r="DG63" s="30"/>
+      <c r="DH63" s="30"/>
+      <c r="DI63" s="34"/>
+      <c r="DJ63" s="34"/>
+      <c r="DK63" s="30"/>
       <c r="DL63" s="22"/>
-      <c r="DM63" s="36"/>
-      <c r="DN63" s="36"/>
-      <c r="DO63" s="36"/>
+      <c r="DM63" s="30"/>
+      <c r="DN63" s="30"/>
+      <c r="DO63" s="30"/>
       <c r="DP63" s="22"/>
       <c r="DQ63" s="22"/>
-      <c r="DR63" s="36"/>
-      <c r="DS63" s="36"/>
+      <c r="DR63" s="30"/>
+      <c r="DS63" s="30"/>
       <c r="DT63" s="28"/>
-      <c r="DU63" s="36"/>
-      <c r="DV63" s="36"/>
+      <c r="DU63" s="30"/>
+      <c r="DV63" s="30"/>
       <c r="DW63" s="22"/>
       <c r="DX63" s="22"/>
       <c r="DY63" s="22"/>
@@ -3539,11 +3587,12 @@
     </row>
     <row r="65" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="14"/>
-      <c r="B65" s="49"/>
-      <c r="BN65" s="54"/>
-      <c r="BU65" s="54"/>
-      <c r="DI65" s="44"/>
-      <c r="DJ65" s="44"/>
+      <c r="B65" s="37"/>
+      <c r="Q65" s="59"/>
+      <c r="BN65" s="39"/>
+      <c r="BU65" s="39"/>
+      <c r="DI65" s="32"/>
+      <c r="DJ65" s="32"/>
       <c r="DL65" s="4"/>
       <c r="DM65" s="4"/>
       <c r="DN65" s="4"/>
@@ -3588,11 +3637,12 @@
     </row>
     <row r="66" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="14"/>
-      <c r="B66" s="49"/>
-      <c r="BN66" s="54"/>
-      <c r="BU66" s="54"/>
-      <c r="DI66" s="44"/>
-      <c r="DJ66" s="44"/>
+      <c r="B66" s="37"/>
+      <c r="Q66" s="59"/>
+      <c r="BN66" s="39"/>
+      <c r="BU66" s="39"/>
+      <c r="DI66" s="32"/>
+      <c r="DJ66" s="32"/>
       <c r="DL66" s="4"/>
       <c r="DM66" s="4"/>
       <c r="DN66" s="4"/>
@@ -3637,11 +3687,12 @@
     </row>
     <row r="67" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14"/>
-      <c r="B67" s="49"/>
-      <c r="BN67" s="54"/>
-      <c r="BU67" s="54"/>
-      <c r="DI67" s="44"/>
-      <c r="DJ67" s="44"/>
+      <c r="B67" s="37"/>
+      <c r="Q67" s="59"/>
+      <c r="BN67" s="39"/>
+      <c r="BU67" s="39"/>
+      <c r="DI67" s="32"/>
+      <c r="DJ67" s="32"/>
       <c r="DL67" s="4"/>
       <c r="DM67" s="4"/>
       <c r="DN67" s="4"/>
@@ -3686,11 +3737,12 @@
     </row>
     <row r="68" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14"/>
-      <c r="B68" s="49"/>
-      <c r="BN68" s="54"/>
-      <c r="BU68" s="54"/>
-      <c r="DI68" s="44"/>
-      <c r="DJ68" s="44"/>
+      <c r="B68" s="37"/>
+      <c r="Q68" s="59"/>
+      <c r="BN68" s="39"/>
+      <c r="BU68" s="39"/>
+      <c r="DI68" s="32"/>
+      <c r="DJ68" s="32"/>
       <c r="DL68" s="4"/>
       <c r="DM68" s="4"/>
       <c r="DN68" s="4"/>
@@ -3735,11 +3787,12 @@
     </row>
     <row r="69" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14"/>
-      <c r="B69" s="49"/>
-      <c r="BN69" s="54"/>
-      <c r="BU69" s="54"/>
-      <c r="DI69" s="44"/>
-      <c r="DJ69" s="44"/>
+      <c r="B69" s="37"/>
+      <c r="Q69" s="59"/>
+      <c r="BN69" s="39"/>
+      <c r="BU69" s="39"/>
+      <c r="DI69" s="32"/>
+      <c r="DJ69" s="32"/>
       <c r="DL69" s="4"/>
       <c r="DM69" s="4"/>
       <c r="DN69" s="4"/>
@@ -3784,11 +3837,12 @@
     </row>
     <row r="70" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="14"/>
-      <c r="B70" s="49"/>
-      <c r="BN70" s="54"/>
-      <c r="BU70" s="54"/>
-      <c r="DI70" s="44"/>
-      <c r="DJ70" s="44"/>
+      <c r="B70" s="37"/>
+      <c r="Q70" s="59"/>
+      <c r="BN70" s="39"/>
+      <c r="BU70" s="39"/>
+      <c r="DI70" s="32"/>
+      <c r="DJ70" s="32"/>
       <c r="DL70" s="4"/>
       <c r="DM70" s="4"/>
       <c r="DN70" s="4"/>
@@ -3833,11 +3887,12 @@
     </row>
     <row r="71" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="14"/>
-      <c r="B71" s="49"/>
-      <c r="BN71" s="54"/>
-      <c r="BU71" s="54"/>
-      <c r="DI71" s="44"/>
-      <c r="DJ71" s="44"/>
+      <c r="B71" s="37"/>
+      <c r="Q71" s="59"/>
+      <c r="BN71" s="39"/>
+      <c r="BU71" s="39"/>
+      <c r="DI71" s="32"/>
+      <c r="DJ71" s="32"/>
       <c r="DL71" s="4"/>
       <c r="DM71" s="4"/>
       <c r="DN71" s="4"/>
@@ -3882,11 +3937,12 @@
     </row>
     <row r="72" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="14"/>
-      <c r="B72" s="49"/>
-      <c r="BN72" s="54"/>
-      <c r="BU72" s="54"/>
-      <c r="DI72" s="44"/>
-      <c r="DJ72" s="44"/>
+      <c r="B72" s="37"/>
+      <c r="Q72" s="59"/>
+      <c r="BN72" s="39"/>
+      <c r="BU72" s="39"/>
+      <c r="DI72" s="32"/>
+      <c r="DJ72" s="32"/>
       <c r="DL72" s="4"/>
       <c r="DM72" s="4"/>
       <c r="DN72" s="4"/>
@@ -3931,11 +3987,12 @@
     </row>
     <row r="73" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14"/>
-      <c r="B73" s="49"/>
-      <c r="BN73" s="54"/>
-      <c r="BU73" s="54"/>
-      <c r="DI73" s="44"/>
-      <c r="DJ73" s="44"/>
+      <c r="B73" s="37"/>
+      <c r="Q73" s="59"/>
+      <c r="BN73" s="39"/>
+      <c r="BU73" s="39"/>
+      <c r="DI73" s="32"/>
+      <c r="DJ73" s="32"/>
       <c r="DL73" s="4"/>
       <c r="DM73" s="4"/>
       <c r="DN73" s="4"/>
@@ -3980,11 +4037,12 @@
     </row>
     <row r="74" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14"/>
-      <c r="B74" s="49"/>
-      <c r="BN74" s="54"/>
-      <c r="BU74" s="54"/>
-      <c r="DI74" s="44"/>
-      <c r="DJ74" s="44"/>
+      <c r="B74" s="37"/>
+      <c r="Q74" s="59"/>
+      <c r="BN74" s="39"/>
+      <c r="BU74" s="39"/>
+      <c r="DI74" s="32"/>
+      <c r="DJ74" s="32"/>
       <c r="DL74" s="4"/>
       <c r="DM74" s="4"/>
       <c r="DN74" s="4"/>
@@ -4029,11 +4087,12 @@
     </row>
     <row r="75" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14"/>
-      <c r="B75" s="49"/>
-      <c r="BN75" s="54"/>
-      <c r="BU75" s="54"/>
-      <c r="DI75" s="44"/>
-      <c r="DJ75" s="44"/>
+      <c r="B75" s="37"/>
+      <c r="Q75" s="59"/>
+      <c r="BN75" s="39"/>
+      <c r="BU75" s="39"/>
+      <c r="DI75" s="32"/>
+      <c r="DJ75" s="32"/>
       <c r="DL75" s="4"/>
       <c r="DM75" s="4"/>
       <c r="DN75" s="4"/>
@@ -4078,11 +4137,12 @@
     </row>
     <row r="76" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="14"/>
-      <c r="B76" s="49"/>
-      <c r="BN76" s="54"/>
-      <c r="BU76" s="54"/>
-      <c r="DI76" s="44"/>
-      <c r="DJ76" s="44"/>
+      <c r="B76" s="37"/>
+      <c r="Q76" s="59"/>
+      <c r="BN76" s="39"/>
+      <c r="BU76" s="39"/>
+      <c r="DI76" s="32"/>
+      <c r="DJ76" s="32"/>
       <c r="DL76" s="4"/>
       <c r="DM76" s="4"/>
       <c r="DN76" s="4"/>
@@ -4127,11 +4187,12 @@
     </row>
     <row r="77" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="14"/>
-      <c r="B77" s="49"/>
-      <c r="BN77" s="54"/>
-      <c r="BU77" s="54"/>
-      <c r="DI77" s="44"/>
-      <c r="DJ77" s="44"/>
+      <c r="B77" s="37"/>
+      <c r="Q77" s="59"/>
+      <c r="BN77" s="39"/>
+      <c r="BU77" s="39"/>
+      <c r="DI77" s="32"/>
+      <c r="DJ77" s="32"/>
       <c r="DL77" s="4"/>
       <c r="DM77" s="4"/>
       <c r="DN77" s="4"/>
@@ -4176,11 +4237,12 @@
     </row>
     <row r="78" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="14"/>
-      <c r="B78" s="49"/>
-      <c r="BN78" s="54"/>
-      <c r="BU78" s="54"/>
-      <c r="DI78" s="44"/>
-      <c r="DJ78" s="44"/>
+      <c r="B78" s="37"/>
+      <c r="Q78" s="59"/>
+      <c r="BN78" s="39"/>
+      <c r="BU78" s="39"/>
+      <c r="DI78" s="32"/>
+      <c r="DJ78" s="32"/>
       <c r="DL78" s="4"/>
       <c r="DM78" s="4"/>
       <c r="DN78" s="4"/>
@@ -4225,11 +4287,12 @@
     </row>
     <row r="79" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="14"/>
-      <c r="B79" s="49"/>
-      <c r="BN79" s="54"/>
-      <c r="BU79" s="54"/>
-      <c r="DI79" s="44"/>
-      <c r="DJ79" s="44"/>
+      <c r="B79" s="37"/>
+      <c r="Q79" s="59"/>
+      <c r="BN79" s="39"/>
+      <c r="BU79" s="39"/>
+      <c r="DI79" s="32"/>
+      <c r="DJ79" s="32"/>
       <c r="DL79" s="4"/>
       <c r="DM79" s="4"/>
       <c r="DN79" s="4"/>
@@ -4274,11 +4337,12 @@
     </row>
     <row r="80" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14"/>
-      <c r="B80" s="49"/>
-      <c r="BN80" s="54"/>
-      <c r="BU80" s="54"/>
-      <c r="DI80" s="44"/>
-      <c r="DJ80" s="44"/>
+      <c r="B80" s="37"/>
+      <c r="Q80" s="59"/>
+      <c r="BN80" s="39"/>
+      <c r="BU80" s="39"/>
+      <c r="DI80" s="32"/>
+      <c r="DJ80" s="32"/>
       <c r="DL80" s="4"/>
       <c r="DM80" s="4"/>
       <c r="DN80" s="4"/>
@@ -4323,11 +4387,12 @@
     </row>
     <row r="81" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="14"/>
-      <c r="B81" s="49"/>
-      <c r="BN81" s="54"/>
-      <c r="BU81" s="54"/>
-      <c r="DI81" s="44"/>
-      <c r="DJ81" s="44"/>
+      <c r="B81" s="37"/>
+      <c r="Q81" s="59"/>
+      <c r="BN81" s="39"/>
+      <c r="BU81" s="39"/>
+      <c r="DI81" s="32"/>
+      <c r="DJ81" s="32"/>
       <c r="DL81" s="4"/>
       <c r="DM81" s="4"/>
       <c r="DN81" s="4"/>
@@ -4372,11 +4437,12 @@
     </row>
     <row r="82" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14"/>
-      <c r="B82" s="49"/>
-      <c r="BN82" s="54"/>
-      <c r="BU82" s="54"/>
-      <c r="DI82" s="44"/>
-      <c r="DJ82" s="44"/>
+      <c r="B82" s="37"/>
+      <c r="Q82" s="59"/>
+      <c r="BN82" s="39"/>
+      <c r="BU82" s="39"/>
+      <c r="DI82" s="32"/>
+      <c r="DJ82" s="32"/>
       <c r="DL82" s="4"/>
       <c r="DM82" s="4"/>
       <c r="DN82" s="4"/>
@@ -4421,11 +4487,12 @@
     </row>
     <row r="83" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="14"/>
-      <c r="B83" s="49"/>
-      <c r="BN83" s="54"/>
-      <c r="BU83" s="54"/>
-      <c r="DI83" s="44"/>
-      <c r="DJ83" s="44"/>
+      <c r="B83" s="37"/>
+      <c r="Q83" s="59"/>
+      <c r="BN83" s="39"/>
+      <c r="BU83" s="39"/>
+      <c r="DI83" s="32"/>
+      <c r="DJ83" s="32"/>
       <c r="DL83" s="4"/>
       <c r="DM83" s="4"/>
       <c r="DN83" s="4"/>
@@ -4470,11 +4537,12 @@
     </row>
     <row r="84" spans="1:156" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14"/>
-      <c r="B84" s="49"/>
-      <c r="BN84" s="54"/>
-      <c r="BU84" s="54"/>
-      <c r="DI84" s="44"/>
-      <c r="DJ84" s="44"/>
+      <c r="B84" s="37"/>
+      <c r="Q84" s="59"/>
+      <c r="BN84" s="39"/>
+      <c r="BU84" s="39"/>
+      <c r="DI84" s="32"/>
+      <c r="DJ84" s="32"/>
       <c r="DL84" s="4"/>
       <c r="DM84" s="4"/>
       <c r="DN84" s="4"/>
@@ -4549,6 +4617,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="DL1:DW1"/>
+    <mergeCell ref="CH1:DK1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="DC2:DI2"/>
     <mergeCell ref="DQ2:DW2"/>
     <mergeCell ref="DJ2:DP2"/>
     <mergeCell ref="A1:A3"/>
@@ -4565,15 +4642,6 @@
     <mergeCell ref="AA1:BB1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="BC1:CG1"/>
-    <mergeCell ref="CH1:DK1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="DC2:DI2"/>
-    <mergeCell ref="DL1:DW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
